--- a/biology/Zoologie/Daphnis_dohertyi/Daphnis_dohertyi.xlsx
+++ b/biology/Zoologie/Daphnis_dohertyi/Daphnis_dohertyi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Daphnis dohertyi est une espèce de lépidoptère appartenant à la famille des Sphingidae, à la sous-famille des Macroglossinae, et au genre Daphnis.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La longueur des ailes antérieures varie de 42 à 47 mm. Les adultes ont des ailes avec un motif complexe vert à brun, avec des taches blanches à la base, au centre et la pointe de chaque aile antérieure. Il y a aussi une bande blanche sur le premier segment abdominal. L'identification est plus nette grâce à la face ventrale qui présente une tache basale blanche évidente.
 </t>
@@ -542,7 +556,9 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Répartition
 L'espèce est connue en Indonésie, en Papouasie-Nouvelle-Guinée, aux Philippines, dans les îles Salomon et dans le détroit de Torres.</t>
@@ -573,14 +589,84 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>L'espèce Daphnis dohertyi a été décrite par l'entomologiste britannique  Lionel Walter Rothschild, en 1897[1].
-La localité type est : Kapaur Dutch S.W. New Gunea, aujourd'hui la parte indonésienne de la Nouvelle-Guinée aux environs de Faktak.
-Synonymie
-Deilephila dohertyi callusia Rothschild &amp; Jordan, 1916
-Liste des sous-espèces
-Daphnis dohertyi dohertyi
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>L'espèce Daphnis dohertyi a été décrite par l'entomologiste britannique  Lionel Walter Rothschild, en 1897.
+La localité type est : Kapaur Dutch S.W. New Gunea, aujourd'hui la parte indonésienne de la Nouvelle-Guinée aux environs de Faktak.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Daphnis_dohertyi</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Daphnis_dohertyi</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Synonymie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Deilephila dohertyi callusia Rothschild &amp; Jordan, 1916</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Daphnis_dohertyi</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Daphnis_dohertyi</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Liste des sous-espèces</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Daphnis dohertyi dohertyi
 Daphnis dohertyi callusia (Rothschild &amp; Jordan, 1916) (Îles Salomon)</t>
         </is>
       </c>
